--- a/io/tabulator/output/output.xlsx
+++ b/io/tabulator/output/output.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="2" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -507,7 +507,7 @@
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
     <col width="23" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
     <col width="23" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -589,11 +589,11 @@
     <row r="4">
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>AAAAAAA</t>
+          <t>BBAABB</t>
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>1</v>
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>BBBBABA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>1</v>
@@ -644,30 +644,30 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>BA,BBAABBBBBA,BBBA,BBBBA</t>
+        </is>
+      </c>
+      <c r="L5" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="inlineStr">
-        <is>
-          <t>BB,BA,BBAA,BBA,AA</t>
-        </is>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>BBBBABA</t>
+          <t>AAAAAAA</t>
         </is>
       </c>
       <c r="C6" s="6" t="n">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -696,162 +696,168 @@
       </c>
       <c r="K6" s="6" t="inlineStr">
         <is>
+          <t>BBAABBBBBABA,BBBBABA</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>BBBABA</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L6" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7"/>
+      <c r="L7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8">
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>AABBA</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>BBAABBAABBA,BBAABBAABA</t>
+        </is>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Species Information</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Reaction as product</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Condensation as products</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Cleavage as products</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Total catalyzers</t>
         </is>
       </c>
-      <c r="H9" s="5" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>Condensation catalyzers</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>Cleavage catalyzers</t>
         </is>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>Catalyzers</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>Reactions as reactants</t>
         </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Cont</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cont</t>
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0</v>
@@ -877,39 +883,39 @@
         </is>
       </c>
       <c r="K12" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="7" t="n">
@@ -919,69 +925,69 @@
     <row r="14">
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K15" s="7" t="n">
@@ -991,20 +997,20 @@
     <row r="16">
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>BBA</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="E16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1</v>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="K16" s="6" t="n">
@@ -1057,13 +1063,13 @@
         </is>
       </c>
       <c r="K17" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>BBAA</t>
+          <t>BBBA</t>
         </is>
       </c>
       <c r="C18" s="6" t="n">
@@ -1089,7 +1095,7 @@
       </c>
       <c r="J18" s="6" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="K18" s="6" t="n">
@@ -1129,49 +1135,49 @@
         </is>
       </c>
       <c r="K19" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>BBBABA</t>
+          <t>BBBBA</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>BBAABB</t>
+          <t>BBBABA</t>
         </is>
       </c>
       <c r="C21" s="7" t="n">
@@ -1201,17 +1207,17 @@
         </is>
       </c>
       <c r="K21" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>AAAAAAA</t>
+          <t>BBAABB</t>
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -1237,227 +1243,479 @@
         </is>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>BBBBABA</t>
+          <t>AAAAAAA</t>
         </is>
       </c>
       <c r="C23" s="7" t="n">
         <v>7</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="7" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>BBBBABA</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
           <t>AAAAAAA</t>
         </is>
       </c>
-      <c r="K23" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24"/>
+      <c r="K24" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>BBAABBAABA</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="inlineStr">
+        <is>
+          <t>AABBA</t>
+        </is>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>BBAABBBBBA</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>BBAABBAABBA</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>AABBA</t>
+        </is>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>BBAABBBBBABA</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Catalyzers as Species Information</t>
         </is>
       </c>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
-      <c r="H25" s="3" t="n"/>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
-      <c r="K25" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Reaction as product</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Condensation as products</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Cleavage as products</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Total catalyzers</t>
         </is>
       </c>
-      <c r="H26" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>Condensation catalyzers</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Cleavage catalyzers</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>Catalyzers</t>
         </is>
       </c>
-      <c r="K26" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>Reactions as reactants</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="6" t="inlineStr">
+    <row r="32">
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>AABBA</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C33" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6" t="inlineStr">
+      <c r="D33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K27" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="7" t="inlineStr">
+      <c r="K33" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>BBBABA</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>BBAABB</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>AAAAAAA</t>
         </is>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C36" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="inlineStr">
+      <c r="D36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K28" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>BBBBABA</t>
-        </is>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6" t="inlineStr">
-        <is>
-          <t>AAAAAAA</t>
-        </is>
-      </c>
-      <c r="K29" s="6" t="n">
-        <v>0</v>
+      <c r="K36" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B30:K30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/io/tabulator/output/output.xlsx
+++ b/io/tabulator/output/output.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,8 +506,8 @@
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
     <col width="23" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -589,128 +589,128 @@
     <row r="4">
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>BBAABB</t>
+          <t>BABABABA</t>
         </is>
       </c>
       <c r="C4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BABABABABABA,AABABABABABA,AABABA,AABBABABABA,BABA,BBBABABA,BABABABABA,AAABABABA,BBBBABABABA,AABBABA,ABABABA,AABABABABA,BBBABABABABA,AABBAABBABA,BBAABBABABA</t>
         </is>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>AABA</t>
+          <t>AAAAAAA</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
-          <t>BA,BBAABBBBBA,BBBA,BBBBA</t>
+          <t>BBBBBBBBAAAA,BBBBBBABABA,BBBBBBBBBB,BBBBBB,BBBBBBBBBBBB,AABBAABBBBBB,BBAABBBBBABA,BABABBBBABAB,AABBBBBB,BBBBBAAAA,AABBBBBBBB,AAABBBBBBABA,ABABBBBBBBBB,ABABBBBBABAB,AABABBBBABAB,BBBBBBBB,BBBBBBBABA,BBBBABA,ABABBBBBBBB</t>
         </is>
       </c>
       <c r="L5" s="7" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>AAAAAAA</t>
+          <t>BABABA</t>
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="6" t="inlineStr">
         <is>
-          <t>BBAABBBBBABA,BBBBABA</t>
+          <t>AABABA,AABBABABA,BA,BBBB,BBBABA,BBAABBABA,ABABBBBBABA,BBBABABA,BABABABABA,BABABBBBABA,AABABABA,AABBABA,B,BBBABABABA,ABABABA,AABABABABA,BABA,BBBBBBABA,BABAB,ABABA,BBBBABAB,BBBBABABA,BABABABA,AAABABA,AABABBBBABA,BBBBABA,BAB</t>
         </is>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>BBBABA</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>1</v>
@@ -722,24 +722,24 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K7" s="7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BBB,ABAB,AABB,BABABBBB,ABA,BBAABB,BBBBBB,AAABBBBBB,ABABA,AABABBBB,ABABBBBB,ABABAB,ABABABA,BBAABBBBB,BBBB,ABABABABA,BBBBBBB,AABBAABB</t>
         </is>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -761,175 +761,181 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>AB,ABAB,BABAB,ABA,AABAB,AABABABAB,ABABA,BBBBABAB,BBBABABAB,BABABAB,ABABAB,ABABABA,AAABAB,AABABAB,BABABABAB,AABBABAB,BBBABAB</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>ABABBBBBABAB</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6" t="inlineStr">
-        <is>
-          <t>BBAABBAABBA,BBAABBAABA</t>
-        </is>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9"/>
-    <row r="10">
-      <c r="B10" s="2" t="inlineStr">
+      <c r="J10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>ABAB,ABABABA,ABABA,AA</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Species Information</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Reaction as product</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Condensation as products</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Cleavage as products</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Total catalyzers</t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>Condensation catalyzers</t>
         </is>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>Cleavage catalyzers</t>
         </is>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>Catalyzers</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>Reactions as reactants</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>Cont</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Cont</t>
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -955,17 +961,17 @@
         </is>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>0</v>
@@ -997,20 +1003,20 @@
     <row r="16">
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1</v>
@@ -1023,66 +1029,66 @@
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>AABA</t>
+          <t>BABABA</t>
         </is>
       </c>
       <c r="K16" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>AABA</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>ABABBBBBABAB</t>
         </is>
       </c>
       <c r="K17" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>BBBA</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>1</v>
@@ -1095,165 +1101,165 @@
       </c>
       <c r="J18" s="6" t="inlineStr">
         <is>
-          <t>AABA</t>
+          <t>BABABA</t>
         </is>
       </c>
       <c r="K18" s="6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AABABABA</t>
         </is>
       </c>
       <c r="K19" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>BBBBA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="n">
         <v>5</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6" t="inlineStr">
-        <is>
-          <t>AABA</t>
-        </is>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>BBBABA</t>
+          <t>ABA</t>
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AABA,AABABABA</t>
         </is>
       </c>
       <c r="K21" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>BBAABB</t>
+          <t>BAB</t>
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BABABA</t>
         </is>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>AAAAAAA</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>0</v>
@@ -1279,370 +1285,409 @@
         </is>
       </c>
       <c r="K23" s="7" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>BBBBABA</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K24" s="6" t="n">
         <v>7</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="inlineStr">
-        <is>
-          <t>AAAAAAA</t>
-        </is>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>BBAABBAABA</t>
+          <t>AABB</t>
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="7" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="K25" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>BBAABBBBBA</t>
+          <t>BBBB</t>
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="6" t="inlineStr">
         <is>
-          <t>AABA</t>
+          <t>AABA,BABABA</t>
         </is>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>BBAABBAABBA</t>
+          <t>ABAB</t>
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="7" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>AABABABA,AABA,ABABBBBBABAB</t>
         </is>
       </c>
       <c r="K27" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>BBAABBBBBABA</t>
+          <t>AABBA</t>
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="6" t="inlineStr">
         <is>
-          <t>AAAAAAA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K28" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>BBAAA</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="30">
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Catalyzers as Species Information</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
-      <c r="H30" s="3" t="n"/>
-      <c r="I30" s="3" t="n"/>
-      <c r="J30" s="3" t="n"/>
-      <c r="K30" s="4" t="n"/>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>ABABA</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" s="6" t="inlineStr">
+        <is>
+          <t>AABA,AABABABA,BABABA,ABABBBBBABAB</t>
+        </is>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>Reaction as product</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>Condensation as products</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>Cleavage as products</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>Total catalyzers</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>Condensation catalyzers</t>
-        </is>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>Cleavage catalyzers</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>Catalyzers</t>
-        </is>
-      </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>Reactions as reactants</t>
-        </is>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>BABAB</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K31" s="7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>AABA</t>
+          <t>AABAB</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AABABABA</t>
         </is>
       </c>
       <c r="K32" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="7" t="inlineStr">
         <is>
-          <t>AABBA</t>
+          <t>BBBABA</t>
         </is>
       </c>
       <c r="C33" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="E33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BABABA</t>
         </is>
       </c>
       <c r="K33" s="7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>BBBABA</t>
+          <t>BBAABB</t>
         </is>
       </c>
       <c r="C34" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AABA</t>
         </is>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="7" t="inlineStr">
         <is>
-          <t>BBAABB</t>
+          <t>BABABA</t>
         </is>
       </c>
       <c r="C35" s="7" t="n">
@@ -1672,50 +1717,2711 @@
         </is>
       </c>
       <c r="K35" s="7" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="6" t="inlineStr">
         <is>
+          <t>AAABBB</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>AABABA</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
+        <is>
+          <t>BABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K37" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>BBBBBB</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA,AABA</t>
+        </is>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>AAABAB</t>
+        </is>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>ABABAB</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="6" t="inlineStr">
+        <is>
+          <t>AABABABA,AABA</t>
+        </is>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="7" t="inlineStr">
+        <is>
           <t>AAAAAAA</t>
         </is>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C41" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="D36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6" t="inlineStr">
+      <c r="D41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K36" s="6" t="n">
-        <v>2</v>
+      <c r="K41" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>AAABABA</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>AABBABA</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>BABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>BBBBABA</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA,BABABA</t>
+        </is>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>ABABABA</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>BABABABA,AABA,AABABABA,BABABA,ABABBBBBABAB</t>
+        </is>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>BABABAB</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="7" t="inlineStr">
+        <is>
+          <t>AABABAB</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>BBBABAB</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="7" t="inlineStr">
+        <is>
+          <t>BBBBBBB</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>BBBBAAAA</t>
+        </is>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>BBBABABA</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K52" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="C53" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="7" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>AABBAABB</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K54" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>AABBABAB</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K55" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="6" t="inlineStr">
+        <is>
+          <t>AABBBBBB</t>
+        </is>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K56" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="7" t="inlineStr">
+        <is>
+          <t>BBBBBBBB</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K57" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>BBBBABAB</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" s="6" t="inlineStr">
+        <is>
+          <t>AABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K58" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="7" t="inlineStr">
+        <is>
+          <t>BABABBBB</t>
+        </is>
+      </c>
+      <c r="C59" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="7" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K59" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>AABABBBB</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="6" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K60" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>ABABBBBB</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="7" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K61" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>BBAABBABA</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K62" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="7" t="inlineStr">
+        <is>
+          <t>AABBAABBA</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>AAABABABA</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K64" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="7" t="inlineStr">
+        <is>
+          <t>BBBBBAAAA</t>
+        </is>
+      </c>
+      <c r="C65" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K65" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>AABBABABA</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K66" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="7" t="inlineStr">
+        <is>
+          <t>ABABABABA</t>
+        </is>
+      </c>
+      <c r="C67" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="7" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K67" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>BBAABBBBB</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K68" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="7" t="inlineStr">
+        <is>
+          <t>AAABBBBBB</t>
+        </is>
+      </c>
+      <c r="C69" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="K69" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>AABABABAB</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="6" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K70" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="7" t="inlineStr">
+        <is>
+          <t>BBBABABAB</t>
+        </is>
+      </c>
+      <c r="C71" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K71" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>BABABABAB</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="6" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="K72" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="7" t="inlineStr">
+        <is>
+          <t>BBBBABABA</t>
+        </is>
+      </c>
+      <c r="C73" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="7" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K73" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>BBBBBBABA</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K74" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="7" t="inlineStr">
+        <is>
+          <t>BABABABABA</t>
+        </is>
+      </c>
+      <c r="C75" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D75" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="7" t="inlineStr">
+        <is>
+          <t>BABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K75" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>AABABABABA</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA,BABABA</t>
+        </is>
+      </c>
+      <c r="K76" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="7" t="inlineStr">
+        <is>
+          <t>BBBBBBBABA</t>
+        </is>
+      </c>
+      <c r="C77" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K77" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>BBBABABABA</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K78" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="7" t="inlineStr">
+        <is>
+          <t>BBBBBBBBBB</t>
+        </is>
+      </c>
+      <c r="C79" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D79" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K79" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>AABBBBBBBB</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K80" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="7" t="inlineStr">
+        <is>
+          <t>AABBABABABA</t>
+        </is>
+      </c>
+      <c r="C81" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D81" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K81" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>BBAABBABABA</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K82" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="7" t="inlineStr">
+        <is>
+          <t>AABBAABBABA</t>
+        </is>
+      </c>
+      <c r="C83" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K83" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>BBBBABABABA</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D84" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K84" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="7" t="inlineStr">
+        <is>
+          <t>BBBBBBABABA</t>
+        </is>
+      </c>
+      <c r="C85" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K85" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>ABABBBBBBBB</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K86" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="7" t="inlineStr">
+        <is>
+          <t>BABABBBBABA</t>
+        </is>
+      </c>
+      <c r="C87" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" s="7" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K87" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="6" t="inlineStr">
+        <is>
+          <t>AABABBBBABA</t>
+        </is>
+      </c>
+      <c r="C88" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D88" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K88" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="7" t="inlineStr">
+        <is>
+          <t>ABABBBBBABA</t>
+        </is>
+      </c>
+      <c r="C89" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D89" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" s="7" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K89" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="6" t="inlineStr">
+        <is>
+          <t>AABABABABABA</t>
+        </is>
+      </c>
+      <c r="C90" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D90" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K90" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="7" t="inlineStr">
+        <is>
+          <t>BBBABABABABA</t>
+        </is>
+      </c>
+      <c r="C91" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D91" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K91" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="6" t="inlineStr">
+        <is>
+          <t>BABABABABABA</t>
+        </is>
+      </c>
+      <c r="C92" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="K92" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="7" t="inlineStr">
+        <is>
+          <t>BBAABBBBBABA</t>
+        </is>
+      </c>
+      <c r="C93" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K93" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>AAABBBBBBABA</t>
+        </is>
+      </c>
+      <c r="C94" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K94" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="7" t="inlineStr">
+        <is>
+          <t>BBBBBBBBAAAA</t>
+        </is>
+      </c>
+      <c r="C95" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K95" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>BBBBBBBBBBBB</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K96" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="7" t="inlineStr">
+        <is>
+          <t>AABBAABBBBBB</t>
+        </is>
+      </c>
+      <c r="C97" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K97" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>BABABBBBABAB</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D98" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K98" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="7" t="inlineStr">
+        <is>
+          <t>AABABBBBABAB</t>
+        </is>
+      </c>
+      <c r="C99" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D99" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K99" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="6" t="inlineStr">
+        <is>
+          <t>ABABBBBBBBBB</t>
+        </is>
+      </c>
+      <c r="C100" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K100" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="7" t="inlineStr">
+        <is>
+          <t>ABABBBBBABAB</t>
+        </is>
+      </c>
+      <c r="C101" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K101" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102"/>
+    <row r="103">
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Catalyzers as Species Information</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+      <c r="I103" s="3" t="n"/>
+      <c r="J103" s="3" t="n"/>
+      <c r="K103" s="4" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D104" s="5" t="inlineStr">
+        <is>
+          <t>Reaction as product</t>
+        </is>
+      </c>
+      <c r="E104" s="5" t="inlineStr">
+        <is>
+          <t>Condensation as products</t>
+        </is>
+      </c>
+      <c r="F104" s="5" t="inlineStr">
+        <is>
+          <t>Cleavage as products</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="inlineStr">
+        <is>
+          <t>Total catalyzers</t>
+        </is>
+      </c>
+      <c r="H104" s="5" t="inlineStr">
+        <is>
+          <t>Condensation catalyzers</t>
+        </is>
+      </c>
+      <c r="I104" s="5" t="inlineStr">
+        <is>
+          <t>Cleavage catalyzers</t>
+        </is>
+      </c>
+      <c r="J104" s="5" t="inlineStr">
+        <is>
+          <t>Catalyzers</t>
+        </is>
+      </c>
+      <c r="K104" s="5" t="inlineStr">
+        <is>
+          <t>Reactions as reactants</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>AABA</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="7" t="inlineStr">
+        <is>
+          <t>AABBA</t>
+        </is>
+      </c>
+      <c r="C106" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="6" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="7" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="C108" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>BABABABA</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D109" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E109" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="6" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K109" s="6" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="7" t="inlineStr">
+        <is>
+          <t>AABABABA</t>
+        </is>
+      </c>
+      <c r="C110" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D110" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" s="7" t="inlineStr">
+        <is>
+          <t>BABABA</t>
+        </is>
+      </c>
+      <c r="K110" s="7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>ABABBBBBABAB</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D111" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6" t="inlineStr">
+        <is>
+          <t>AAAAAAA</t>
+        </is>
+      </c>
+      <c r="K111" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B103:K103"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/io/tabulator/output/output.xlsx
+++ b/io/tabulator/output/output.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="2" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
@@ -589,620 +589,1169 @@
     <row r="4">
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>ABAB</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="inlineStr"/>
+      <c r="E4" s="6" t="inlineStr"/>
+      <c r="F4" s="6" t="inlineStr"/>
       <c r="G4" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A,BAA,AA</t>
         </is>
       </c>
       <c r="L4" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>BABAB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr"/>
+      <c r="F5" s="7" t="inlineStr"/>
+      <c r="G5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="inlineStr"/>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>AAA,BA</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="7" t="inlineStr"/>
+      <c r="G7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>BBA,BA</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>BAA</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
+        <is>
+          <t>BA,B</t>
+        </is>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>BBA</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>A,AB</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="inlineStr"/>
+      <c r="E10" s="6" t="inlineStr"/>
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>BBA</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Species Information</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Reaction as product</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Condensation as products</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Cleavage as products</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>Total catalyzers</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>Condensation catalyzers</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>Cleavage catalyzers</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Catalyzers</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Reactions as reactants</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Cont</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>BA,BBA</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>BAA</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>BBA</t>
+        </is>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t>AAA,BB,BAA</t>
+        </is>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>AAB</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L5" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Species Information</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="inlineStr">
+      <c r="K22" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>ABA</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>BAA</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>BAB</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>BBA</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>AB,AAA</t>
+        </is>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Catalyzers as Species Information</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Reaction as product</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Condensation as products</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Cleavage as products</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Total catalyzers</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>Condensation catalyzers</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Cleavage catalyzers</t>
         </is>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>Catalyzers</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>Reactions as reactants</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Cont</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
+    <row r="32">
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>BBA</t>
+        </is>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7" t="inlineStr">
+        <is>
+          <t>AAA,BB,BAA</t>
+        </is>
+      </c>
+      <c r="K33" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K9" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
+      <c r="K34" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>BAA</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>BBA</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
+        <is>
+          <t>AB,AAA</t>
+        </is>
+      </c>
+      <c r="K37" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K10" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6" t="inlineStr">
-        <is>
-          <t>ABAB</t>
-        </is>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>AAB</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>BBA</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>ABAB</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>BABAB</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18"/>
-    <row r="19">
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Catalyzers as Species Information</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Reaction as product</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>Condensation as products</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>Cleavage as products</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>Total catalyzers</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>Condensation catalyzers</t>
-        </is>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>Cleavage catalyzers</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>Catalyzers</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>Reactions as reactants</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>ABAB</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>BABAB</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="7" t="n">
+      <c r="K38" s="6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B30:K30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/io/tabulator/output/output.xlsx
+++ b/io/tabulator/output/output.xlsx
@@ -612,7 +612,7 @@
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>A,BAA,AA</t>
+          <t>A,AA,BAA</t>
         </is>
       </c>
       <c r="L4" s="6" t="n">
@@ -645,7 +645,7 @@
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
-          <t>BA,AAA,ABA</t>
+          <t>ABA,AAA,BA</t>
         </is>
       </c>
       <c r="L5" s="7" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="K7" s="7" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>B,A</t>
         </is>
       </c>
       <c r="L7" s="7" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>ABB,AAB</t>
+          <t>AAB,ABB</t>
         </is>
       </c>
       <c r="L8" s="6" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="K9" s="7" t="inlineStr">
         <is>
-          <t>BA,BBA</t>
+          <t>BBA,BA</t>
         </is>
       </c>
       <c r="L9" s="7" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>BA,A,AA,B</t>
+          <t>B,A,AA,BA</t>
         </is>
       </c>
       <c r="L10" s="6" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="K11" s="7" t="inlineStr">
         <is>
-          <t>A,AB</t>
+          <t>AB,A</t>
         </is>
       </c>
       <c r="L11" s="7" t="n">
@@ -1129,33 +1129,33 @@
     <row r="21">
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C21" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="7" t="inlineStr">
         <is>
-          <t>BA,BAA</t>
+          <t>AAA,BB,BAA</t>
         </is>
       </c>
       <c r="K21" s="7" t="n">
@@ -1165,7 +1165,7 @@
     <row r="22">
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C22" s="6" t="n">
@@ -1191,83 +1191,83 @@
       </c>
       <c r="J22" s="6" t="inlineStr">
         <is>
-          <t>BBA,BAB</t>
+          <t>BA,BAA</t>
         </is>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C23" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="inlineStr">
         <is>
-          <t>AAA,BB,BAA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K23" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BBA,BAB</t>
         </is>
       </c>
       <c r="K24" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1309,33 +1309,33 @@
     <row r="26">
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>AAB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C26" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K26" s="6" t="n">
@@ -1345,33 +1345,33 @@
     <row r="27">
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="C27" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="7" t="inlineStr">
         <is>
-          <t>BB,AAB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="K27" s="7" t="n">
@@ -1381,7 +1381,7 @@
     <row r="28">
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>BAA</t>
         </is>
       </c>
       <c r="C28" s="6" t="n">
@@ -1407,89 +1407,89 @@
       </c>
       <c r="J28" s="6" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="K28" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>BAA</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="C29" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="7" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>AB,AAA</t>
         </is>
       </c>
       <c r="K29" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>BAB</t>
+          <t>ABA</t>
         </is>
       </c>
       <c r="C30" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BB,AAB</t>
         </is>
       </c>
       <c r="K30" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>BBA</t>
+          <t>AAB</t>
         </is>
       </c>
       <c r="C31" s="7" t="n">
@@ -1505,27 +1505,27 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="7" t="inlineStr">
         <is>
-          <t>AB,AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="K31" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BAB</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
